--- a/medicine/Sexualité et sexologie/Emmanuelle_6/Emmanuelle_6.xlsx
+++ b/medicine/Sexualité et sexologie/Emmanuelle_6/Emmanuelle_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuelle 6 est un film érotique français de Bruno Zincone et Jean Rollin sorti en 1988.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À bord d'un paquebot en croisiere, Emmanuelle et les quatre plus beaux mannequins du monde doivent faire un défilé de haute couture. Elles tombent dans un piège tendu par des pirates intéressés par les jeunes filles et les bijoux qu'elles doivent porter...
 </t>
@@ -542,9 +556,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bruno Zincone dut quitter le tournage après six semaines de tournages chaotiques. La production du film, qui ne disposait que de quarante-cinq minutes utiles, appela Jean Rollin à la rescousse. Il reprit le tournage après avoir quelque peu retouché le scénario[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruno Zincone dut quitter le tournage après six semaines de tournages chaotiques. La production du film, qui ne disposait que de quarante-cinq minutes utiles, appela Jean Rollin à la rescousse. Il reprit le tournage après avoir quelque peu retouché le scénario.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Emmanuelle 6
 Réalisation : Bruno Zincone et Jean Rollin
@@ -586,8 +604,8 @@
 Date de sortie :
  France : 6 juillet 1988
 Classification :
- France : interdit aux moins de 16 ans[2]
- Royaume-Uni : interdit aux moins de 18 ans[3]</t>
+ France : interdit aux moins de 16 ans
+ Royaume-Uni : interdit aux moins de 18 ans</t>
         </is>
       </c>
     </row>
@@ -615,7 +633,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Natalie Uher : Emmanuelle
 Jean-René Gossart : Professeur Simon
